--- a/OnBoard/output/trust/catch/Catch_Trust_58.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_58.xlsx
@@ -2335,7 +2335,7 @@
         <v>0.057</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I48">
         <v>30.50357142857143</v>
@@ -2417,7 +2417,7 @@
         <v>0.253</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I50">
         <v>30.50357142857143</v>
@@ -3196,7 +3196,7 @@
         <v>2.408</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I69">
         <v>30.50357142857143</v>
@@ -3278,7 +3278,7 @@
         <v>0.287</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I71">
         <v>30.50357142857143</v>
